--- a/artfynd/A 35883-2025 artfynd.xlsx
+++ b/artfynd/A 35883-2025 artfynd.xlsx
@@ -1593,7 +1593,7 @@
         <v>129763762</v>
       </c>
       <c r="B11" t="n">
-        <v>92763</v>
+        <v>92767</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>129763738</v>
       </c>
       <c r="B12" t="n">
-        <v>96229</v>
+        <v>96233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>129763743</v>
       </c>
       <c r="B13" t="n">
-        <v>92763</v>
+        <v>92767</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>129763763</v>
       </c>
       <c r="B14" t="n">
-        <v>101211</v>
+        <v>101215</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>129763761</v>
       </c>
       <c r="B15" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>129763740</v>
       </c>
       <c r="B16" t="n">
-        <v>96229</v>
+        <v>96233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>

--- a/artfynd/A 35883-2025 artfynd.xlsx
+++ b/artfynd/A 35883-2025 artfynd.xlsx
@@ -1593,7 +1593,7 @@
         <v>129763762</v>
       </c>
       <c r="B11" t="n">
-        <v>92767</v>
+        <v>92768</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1700,7 +1700,7 @@
         <v>129763738</v>
       </c>
       <c r="B12" t="n">
-        <v>96233</v>
+        <v>96234</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>129763743</v>
       </c>
       <c r="B13" t="n">
-        <v>92767</v>
+        <v>92768</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>129763763</v>
       </c>
       <c r="B14" t="n">
-        <v>101215</v>
+        <v>101216</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2022,7 +2022,7 @@
         <v>129763761</v>
       </c>
       <c r="B15" t="n">
-        <v>79243</v>
+        <v>79244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2129,7 +2129,7 @@
         <v>129763740</v>
       </c>
       <c r="B16" t="n">
-        <v>96233</v>
+        <v>96234</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
